--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_265.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_265.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,493 +488,516 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:06.840000', '0:00:16.080000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[('0:01:30.140000', '0:01:38.780000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:49.440000', '0:02:03.140000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.125886524822695</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D', 'G']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(51.315598, 59.809365)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(63.629047, 74.101247)]</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:40.080000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:07.400000', '0:00:18.960000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:38.841000', '0:00:46.833000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(78.32, 99.6)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[('0:00:04.160000', '0:00:06.700000'), ('0:00:01.640000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:24', '0:01:30.840000'), ('0:00:28.800000', '0:00:36.860000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:03.820000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.425</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[('0:02:00', '0:02:02.700000'), ('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.18, 61.0)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[('0:01:45.400000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:10.100000', '0:00:15.420000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -978,225 +1006,176 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(16.88, 60.84)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(127.6, 133.76)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.78, 19.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(3.44, 7.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
